--- a/src/technology/tutorial-biorefinery/tutorial-biorefinery.xlsx
+++ b/src/technology/tutorial-biorefinery/tutorial-biorefinery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\tutorial-biorefinery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel-my.sharepoint.com/personal/tghosh_nrel_gov/Documents/work_NREL/tyche/src/technology/tutorial-biorefinery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0BA71-071B-48D2-81D7-A5FB6A57F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1EE0BA71-071B-48D2-81D7-A5FB6A57F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33035D19-3FEC-7849-82D7-AE0C1EA3A207}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2730" windowWidth="20910" windowHeight="11775" xr2:uid="{A613468B-4246-47D0-8059-797BD75C3238}"/>
+    <workbookView xWindow="5920" yWindow="2740" windowWidth="20920" windowHeight="11780" activeTab="4" xr2:uid="{A613468B-4246-47D0-8059-797BD75C3238}"/>
   </bookViews>
   <sheets>
     <sheet name="designs" sheetId="1" r:id="rId1"/>
@@ -767,11 +767,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BF247-5429-4E4B-9678-6277797CABB5}">
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -817,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -840,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -863,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -886,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -909,7 +917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -929,7 +937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -949,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -969,7 +977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -989,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1465,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1912,7 +1920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2021,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2153,7 +2161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -2368,7 +2376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2474,7 +2482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -2494,7 +2502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -2534,7 +2542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2646,7 +2654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2795,7 +2803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +2843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +2889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -2993,7 +3001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -3076,7 +3084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3096,7 +3104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3116,7 +3124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3159,7 +3167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3248,7 +3256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3271,7 +3279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3294,7 +3302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -3437,7 +3445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -3549,7 +3557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -3618,7 +3626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -3698,7 +3706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -3784,7 +3792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -3804,7 +3812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -3827,7 +3835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -3873,7 +3881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -3999,7 +4007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -4019,7 +4027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4085,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4105,7 +4113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4151,7 +4159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -4174,7 +4182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -4197,7 +4205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4429,7 +4437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -4452,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4581,7 +4589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4601,7 +4609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -4664,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -4687,7 +4695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -4718,9 +4726,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4780,9 +4788,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4819,7 +4827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4853,7 +4861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4887,7 +4895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4915,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4963,7 +4971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5011,9 +5019,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5038,7 +5046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -5170,7 +5178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -5212,11 +5220,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7A7F6-C51A-4296-993F-ABD3322B9938}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5239,7 +5253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +5273,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +5293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5299,7 +5313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5319,7 +5333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5339,7 +5353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5359,7 +5373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5379,7 +5393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5399,7 +5413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5419,7 +5433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5453,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5479,7 +5493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5499,7 +5513,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5519,7 +5533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5539,7 +5553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5559,7 +5573,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5579,7 +5593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -5599,7 +5613,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -5639,7 +5653,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -5659,7 +5673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5679,7 +5693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -5699,7 +5713,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -5719,7 +5733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -5739,7 +5753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -5759,7 +5773,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -5779,7 +5793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -5799,7 +5813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -5819,7 +5833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -5839,7 +5853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -5859,7 +5873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -5879,7 +5893,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -5899,7 +5913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -5919,7 +5933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -5939,7 +5953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -5959,7 +5973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -5979,7 +5993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -5999,7 +6013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -6019,7 +6033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -6059,7 +6073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -6079,7 +6093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -6099,7 +6113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -6119,7 +6133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -6139,7 +6153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -6159,7 +6173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -6179,7 +6193,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -6199,7 +6213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -6219,7 +6233,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -6239,7 +6253,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -6259,7 +6273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -6279,7 +6293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -6299,7 +6313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -6319,7 +6333,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -6339,7 +6353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -6359,7 +6373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -6379,7 +6393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -6399,7 +6413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -6419,7 +6433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -6439,7 +6453,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -6459,7 +6473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -6479,7 +6493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -6499,7 +6513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -6519,7 +6533,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -6539,7 +6553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -6559,7 +6573,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -6579,7 +6593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -6599,7 +6613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -6619,7 +6633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -6639,7 +6653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -6659,7 +6673,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -6679,7 +6693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -6699,7 +6713,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -6719,7 +6733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -6739,7 +6753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -6759,7 +6773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -6779,7 +6793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -6799,7 +6813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -6819,7 +6833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -6859,7 +6873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -6879,7 +6893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -6899,7 +6913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -6919,7 +6933,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -6939,7 +6953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -6959,7 +6973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -6979,7 +6993,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -6999,7 +7013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -7019,7 +7033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -7039,7 +7053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -7059,7 +7073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -7079,7 +7093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -7099,7 +7113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -7119,7 +7133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -7139,7 +7153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -7159,7 +7173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +7193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -7199,7 +7213,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -7219,7 +7233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -7239,7 +7253,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -7259,7 +7273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -7279,7 +7293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -7299,7 +7313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -7319,7 +7333,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -7339,7 +7353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -7359,7 +7373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -7379,7 +7393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -7399,7 +7413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -7419,7 +7433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -7439,7 +7453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -7459,7 +7473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -7479,7 +7493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -7499,7 +7513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -7519,7 +7533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -7539,7 +7553,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -7559,7 +7573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -7579,7 +7593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -7599,7 +7613,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -7619,7 +7633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -7639,7 +7653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -7659,7 +7673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -7679,7 +7693,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -7699,7 +7713,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -7719,7 +7733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -7739,7 +7753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -7759,7 +7773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -7779,7 +7793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -7799,7 +7813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -7819,7 +7833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -7839,7 +7853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7859,7 +7873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -7879,7 +7893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -7899,7 +7913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -7919,7 +7933,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -7939,7 +7953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -7959,7 +7973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -7979,7 +7993,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -7999,7 +8013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -8019,7 +8033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -8039,7 +8053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -8059,7 +8073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -8079,7 +8093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -8099,7 +8113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -8119,7 +8133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -8139,7 +8153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -8159,7 +8173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -8179,7 +8193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -8199,7 +8213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -8219,7 +8233,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -8239,7 +8253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -8259,7 +8273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -8279,7 +8293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -8299,7 +8313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -8319,7 +8333,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -8339,7 +8353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -8359,7 +8373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -8379,7 +8393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -8399,7 +8413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -8419,7 +8433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -8439,7 +8453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -8459,7 +8473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -8479,7 +8493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -8499,7 +8513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -8519,7 +8533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -8539,7 +8553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -8559,7 +8573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -8579,7 +8593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -8599,7 +8613,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -8619,7 +8633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -8639,7 +8653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -8659,7 +8673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -8679,7 +8693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -8699,7 +8713,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -8719,7 +8733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -8739,7 +8753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -8759,7 +8773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -8779,7 +8793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -8799,7 +8813,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -8819,7 +8833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -8839,7 +8853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -8859,7 +8873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -8879,7 +8893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -8899,7 +8913,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -8919,7 +8933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -8939,7 +8953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -8959,7 +8973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -8979,7 +8993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -8999,7 +9013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -9019,7 +9033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -9039,7 +9053,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -9059,7 +9073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -9079,7 +9093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -9099,7 +9113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -9119,7 +9133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -9139,7 +9153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -9159,7 +9173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -9179,7 +9193,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -9199,7 +9213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -9219,7 +9233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -9239,7 +9253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -9259,7 +9273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -9279,7 +9293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -9299,7 +9313,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -9319,7 +9333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -9339,7 +9353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -9359,7 +9373,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -9379,7 +9393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -9399,7 +9413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -9419,7 +9433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -9439,7 +9453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -9459,7 +9473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -9479,7 +9493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -9499,7 +9513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -9519,7 +9533,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -9539,7 +9553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -9559,7 +9573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -9579,7 +9593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -9599,7 +9613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -9619,7 +9633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -9639,7 +9653,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -9670,9 +9684,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9689,7 +9703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9703,7 +9717,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9720,7 +9734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9734,7 +9748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9748,7 +9762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -9762,7 +9776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -9790,9 +9804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -9809,7 +9823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9823,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -9837,7 +9851,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -9851,7 +9865,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -9865,7 +9879,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -9879,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -9893,7 +9907,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -9907,7 +9921,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -9921,7 +9935,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -9935,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -9949,7 +9963,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -9963,7 +9977,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -9977,7 +9991,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -9991,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -10005,7 +10019,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -10019,7 +10033,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
